--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacko\Documents\courses\IntroAI\Final Project\AdversarialAttacks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9700D224-BE52-45B0-A283-2B0A8F3F48BA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90F51B-3894-4BDF-A037-C035847EDDE7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,18 +38,6 @@
     <t>Image</t>
   </si>
   <si>
-    <t>ChangeBestPixel (Test 29) % Change in Confidence</t>
-  </si>
-  <si>
-    <t>ChangeBest2Pixels (Test 29) % Change in Confidence</t>
-  </si>
-  <si>
-    <t>ChangeBestPixel2Iterations (Test 29) % Change in Confidence</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>testing/yaleB01/image0.jpg</t>
   </si>
   <si>
@@ -197,7 +185,19 @@
     <t>success0</t>
   </si>
   <si>
-    <t>ChangeAllPixels % Change in Confidence</t>
+    <t>Average Change in Confidence</t>
+  </si>
+  <si>
+    <t>Change 1 Best Pixel (Test 29) by 128</t>
+  </si>
+  <si>
+    <t>Change 2 Best Pixels (Test 29) by 128</t>
+  </si>
+  <si>
+    <t>Change 1 Best Pixel - 2 Iterations (Test 29+29) by 128</t>
+  </si>
+  <si>
+    <t>Change All Pixels by 20 to 50 (randomly selected)</t>
   </si>
 </sst>
 </file>
@@ -363,9 +363,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5768635242987487E-2"/>
+          <c:x val="0.17159359440535049"/>
           <c:y val="7.3739856080819427E-2"/>
-          <c:w val="0.68599479890041482"/>
+          <c:w val="0.39738148225768355"/>
           <c:h val="0.65482038685907296"/>
         </c:manualLayout>
       </c:layout>
@@ -382,7 +382,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ChangeBestPixel (Test 29) % Change in Confidence</c:v>
+                  <c:v>Change 1 Best Pixel (Test 29) by 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -431,250 +431,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testing/yaleB01/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>testing/yaleB02/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>testing/yaleB03/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>testing/yaleB04/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>testing/yaleB05/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>testing/yaleB06/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>testing/yaleB07/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>testing/yaleB08/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>testing/yaleB09/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>testing/yaleB10/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>testing/yaleB11/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>testing/yaleB12/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>testing/yaleB13/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>testing/yaleB15/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>testing/yaleB16/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>testing/yaleB17/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>testing/yaleB18/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>testing/yaleB19/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>testing/yaleB20/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>testing/yaleB21/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>testing/yaleB22/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>testing/yaleB23/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>testing/yaleB24/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>testing/yaleB25/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>testing/yaleB26/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>testing/yaleB27/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>testing/yaleB28/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>testing/yaleB29/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>testing/yaleB30/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>testing/yaleB31/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>testing/yaleB32/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>testing/yaleB33/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>testing/yaleB34/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>testing/yaleB35/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>testing/yaleB36/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>testing/yaleB37/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>testing/yaleB38/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>testing/yaleB39/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Average</c:v>
+                  <c:v>Average Change in Confidence</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.14780499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13733429</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0807973000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11091848999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5239915999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.43089264999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.20237619000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.9535779999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7951706000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.1529560000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4636369999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.36042449999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.40293225999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.17687037999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.11114834</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.15197858</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.12974574</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.0087360000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5480218000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8162665E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.2405736</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.1847450000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.4910090000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.42979299999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.8942552999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.10434584</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.1841046E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.1255888000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.14046863000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.34782400000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.20347956</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.8684179999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.14223652000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.47186266999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.2976713999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.1077470000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.21616393</c:v>
-                </c:pt>
-                <c:pt idx="38">
                   <c:v>0.14243206482789472</c:v>
                 </c:pt>
               </c:numCache>
@@ -695,7 +467,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ChangeBest2Pixels (Test 29) % Change in Confidence</c:v>
+                  <c:v>Change 2 Best Pixels (Test 29) by 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -744,250 +516,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testing/yaleB01/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>testing/yaleB02/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>testing/yaleB03/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>testing/yaleB04/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>testing/yaleB05/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>testing/yaleB06/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>testing/yaleB07/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>testing/yaleB08/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>testing/yaleB09/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>testing/yaleB10/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>testing/yaleB11/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>testing/yaleB12/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>testing/yaleB13/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>testing/yaleB15/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>testing/yaleB16/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>testing/yaleB17/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>testing/yaleB18/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>testing/yaleB19/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>testing/yaleB20/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>testing/yaleB21/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>testing/yaleB22/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>testing/yaleB23/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>testing/yaleB24/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>testing/yaleB25/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>testing/yaleB26/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>testing/yaleB27/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>testing/yaleB28/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>testing/yaleB29/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>testing/yaleB30/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>testing/yaleB31/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>testing/yaleB32/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>testing/yaleB33/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>testing/yaleB34/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>testing/yaleB35/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>testing/yaleB36/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>testing/yaleB37/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>testing/yaleB38/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>testing/yaleB39/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Average</c:v>
+                  <c:v>Average Change in Confidence</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$40</c:f>
+              <c:f>Sheet1!$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.11134028999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18651234999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14859386999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31359841999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1632670000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5318967</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.43813734999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20911813000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4987308E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.19061637000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.6380440000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.48757004999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.52471226000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.41998725999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2619995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.27267682999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.30051133000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.10568027000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.13867424</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.16035342</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.38649228000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.119902514</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.13312879</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.52237210000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.3355843000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.24505432999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.3731389999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.6185009999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.13159314</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.39467096000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.36175308</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.9945530000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.20617062999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.53131293999999996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.12669335000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.9087159999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.25114693999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
                   <c:v>0.22730460644736838</c:v>
                 </c:pt>
               </c:numCache>
@@ -1008,14 +552,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ChangeBestPixel2Iterations (Test 29) % Change in Confidence</c:v>
+                  <c:v>Change 1 Best Pixel - 2 Iterations (Test 29+29) by 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFD320"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1057,250 +603,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testing/yaleB01/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>testing/yaleB02/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>testing/yaleB03/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>testing/yaleB04/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>testing/yaleB05/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>testing/yaleB06/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>testing/yaleB07/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>testing/yaleB08/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>testing/yaleB09/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>testing/yaleB10/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>testing/yaleB11/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>testing/yaleB12/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>testing/yaleB13/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>testing/yaleB15/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>testing/yaleB16/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>testing/yaleB17/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>testing/yaleB18/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>testing/yaleB19/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>testing/yaleB20/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>testing/yaleB21/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>testing/yaleB22/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>testing/yaleB23/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>testing/yaleB24/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>testing/yaleB25/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>testing/yaleB26/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>testing/yaleB27/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>testing/yaleB28/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>testing/yaleB29/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>testing/yaleB30/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>testing/yaleB31/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>testing/yaleB32/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>testing/yaleB33/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>testing/yaleB34/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>testing/yaleB35/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>testing/yaleB36/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>testing/yaleB37/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>testing/yaleB38/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>testing/yaleB39/image0.jpg</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Average</c:v>
+                  <c:v>Average Change in Confidence</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$40</c:f>
+              <c:f>Sheet1!$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.25098251999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28101596000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18852587000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23951833</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.072382E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.60806780000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33985515999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.30988294</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8163696E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.23207620000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.10318937</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.55894935000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.56156919999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.29811862</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.30411068000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.25499535000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.43461564000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.13904010999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.10608745999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.8962519999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.35588091999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.11528756499999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.109188154</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.59405859999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.0465919999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.21484342000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.0360413000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.5239499999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.18396860000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.47567323</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.38969398</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.4420549999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.21038997000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.68445045000000004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.14526759</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.17478943999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.36577929999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
                   <c:v>0.25232126836842095</c:v>
                 </c:pt>
               </c:numCache>
@@ -1321,133 +639,30 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ChangeAllPixels % Change in Confidence</c:v>
+                  <c:v>Change All Pixels by 20 to 50 (randomly selected)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Change in Confidence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$40</c:f>
+              <c:f>Sheet1!$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.91109680000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59697217000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87879675999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99791160000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35594130000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97999340000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98694249999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.83760369999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93953679999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.70322879999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.96363469999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.85810149999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.78860145999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.91346585999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.93029576999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.94109493</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.65979690000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.87602729999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.99864200000000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.99233245999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.69709969999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.99611360000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.65887669999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.76155209999999995</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.97230479999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.97351896999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.57683026999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.9551984</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.8114633</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.67279374999999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.93795879999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.92445564000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.69456923000000004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.92421509999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.36385304000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.94107370000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.95199590000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.99325830000000004</c:v>
-                </c:pt>
-                <c:pt idx="38">
                   <c:v>0.8399249476315791</c:v>
                 </c:pt>
               </c:numCache>
@@ -1549,8 +764,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.7997399450207445E-2"/>
-              <c:y val="0.1621869587604737"/>
+              <c:x val="2.1011376742464154E-2"/>
+              <c:y val="9.6076964805286616E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1597,10 +812,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.79384639921318978"/>
-          <c:y val="0.2103511593962373"/>
-          <c:w val="0.20615360078681028"/>
-          <c:h val="0.39554752694761119"/>
+          <c:x val="0.60584463539015809"/>
+          <c:y val="8.475712430039932E-2"/>
+          <c:w val="0.39415519828082318"/>
+          <c:h val="0.61618556590813112"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1643,20 +858,479 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5768635242987487E-2"/>
+          <c:y val="0.10076193758963031"/>
+          <c:w val="0.88713868639008675"/>
+          <c:h val="0.62779827484222939"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Change All Pixels by 20 to 50 (randomly selected)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>testing/yaleB01/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>testing/yaleB02/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>testing/yaleB03/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>testing/yaleB04/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>testing/yaleB05/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>testing/yaleB06/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>testing/yaleB07/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>testing/yaleB08/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>testing/yaleB09/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>testing/yaleB10/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>testing/yaleB11/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>testing/yaleB12/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>testing/yaleB13/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>testing/yaleB15/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>testing/yaleB16/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>testing/yaleB17/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>testing/yaleB18/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>testing/yaleB19/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>testing/yaleB20/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>testing/yaleB21/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>testing/yaleB22/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>testing/yaleB23/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>testing/yaleB24/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>testing/yaleB25/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>testing/yaleB26/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>testing/yaleB27/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>testing/yaleB28/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>testing/yaleB29/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>testing/yaleB30/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>testing/yaleB31/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>testing/yaleB32/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>testing/yaleB33/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>testing/yaleB34/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>testing/yaleB35/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>testing/yaleB36/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>testing/yaleB37/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>testing/yaleB38/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>testing/yaleB39/image0.jpg</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Average Change in Confidence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.91109680000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59697217000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87879675999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99791160000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35594130000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97999340000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98694249999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83760369999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93953679999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70322879999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96363469999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85810149999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78860145999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91346585999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93029576999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94109493</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65979690000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87602729999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99864200000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99233245999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69709969999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99611360000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65887669999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76155209999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97230479999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97351896999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.57683026999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9551984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8114633</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.67279374999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93795879999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92445564000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69456923000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92421509999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.36385304000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.94107370000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95199590000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99325830000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8399249476315791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-275E-4B38-B9B1-204608B3A2A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="84491228"/>
+        <c:axId val="81167459"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84491228"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81167459"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81167459"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Decrease</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in Classifier Confidence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7997399450207445E-2"/>
+              <c:y val="0.1621869587604737"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84491228"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>198960</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>441960</xdr:rowOff>
+      <xdr:rowOff>449580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>21180</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1676,6 +1350,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1074420</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>463980</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>5940</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61E7F23-BEA4-4FB3-BD78-0FEEA529D493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1981,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2001,13 +1713,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>54</v>
@@ -2015,7 +1727,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>0.14780499</v>
@@ -2032,7 +1744,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
         <v>0.13733429</v>
@@ -2049,7 +1761,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>6.0807973000000001E-2</v>
@@ -2066,7 +1778,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0.11091848999999999</v>
@@ -2083,7 +1795,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>1.5239915999999999E-2</v>
@@ -2100,7 +1812,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0.43089264999999999</v>
@@ -2117,7 +1829,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0.20237619000000001</v>
@@ -2134,7 +1846,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>8.9535779999999995E-2</v>
@@ -2151,7 +1863,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>1.7951706000000001E-2</v>
@@ -2168,7 +1880,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>7.1529560000000006E-2</v>
@@ -2185,7 +1897,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -2202,7 +1914,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>1.4636369999999999E-2</v>
@@ -2219,7 +1931,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>0.36042449999999998</v>
@@ -2236,7 +1948,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>0.40293225999999999</v>
@@ -2253,7 +1965,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>0.17687037999999999</v>
@@ -2270,7 +1982,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>0.11114834</v>
@@ -2287,7 +1999,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>0.15197858</v>
@@ -2304,7 +2016,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>0.12974574</v>
@@ -2321,7 +2033,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>9.0087360000000005E-2</v>
@@ -2338,7 +2050,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>4.5480218000000003E-2</v>
@@ -2355,7 +2067,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>4.8162665E-2</v>
@@ -2372,7 +2084,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2405736</v>
@@ -2389,7 +2101,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>4.1847450000000001E-2</v>
@@ -2406,7 +2118,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>1.4910090000000001E-2</v>
@@ -2423,7 +2135,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>0.42979299999999998</v>
@@ -2440,7 +2152,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>2.8942552999999999E-2</v>
@@ -2457,7 +2169,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>0.10434584</v>
@@ -2474,7 +2186,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>1.1841046E-4</v>
@@ -2491,7 +2203,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>2.1255888000000001E-2</v>
@@ -2508,7 +2220,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>0.14046863000000001</v>
@@ -2525,7 +2237,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>0.34782400000000002</v>
@@ -2542,7 +2254,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>0.20347956</v>
@@ -2559,7 +2271,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>3.8684179999999999E-2</v>
@@ -2576,7 +2288,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>0.14223652000000001</v>
@@ -2593,7 +2305,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>0.47186266999999998</v>
@@ -2610,7 +2322,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>8.2976713999999993E-2</v>
@@ -2627,7 +2339,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>7.1077470000000004E-2</v>
@@ -2644,7 +2356,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>0.21616393</v>
@@ -2661,7 +2373,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2">
         <f>AVERAGE(B1:B39)</f>
@@ -2678,6 +2390,24 @@
       <c r="E40" s="2">
         <f>AVERAGE(E1:E39)</f>
         <v>0.8399249476315791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f>STDEV(B2:B39)</f>
+        <v>0.13321151394550365</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:E42" si="0">STDEV(C2:C39)</f>
+        <v>0.16342673706848609</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.18298053129231781</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.16983053627859168</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B7B863-F41C-4E21-9C12-0AEC62BF9231}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -2702,30 +2432,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>-0.18656461999999999</v>
@@ -2748,7 +2478,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>-0.23835695000000001</v>
@@ -2771,7 +2501,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>-0.16136903</v>
@@ -2794,7 +2524,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>-0.12413961</v>
@@ -2817,7 +2547,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>-2.0113707000000002E-2</v>
@@ -2840,7 +2570,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>-0.32083869999999998</v>
@@ -2863,7 +2593,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>-0.28227192000000001</v>
@@ -2886,7 +2616,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>-0.17822155000000001</v>
@@ -2909,7 +2639,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>-1.5076041E-2</v>
@@ -2932,7 +2662,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>-9.6608910000000006E-2</v>
@@ -2955,7 +2685,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2978,7 +2708,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>-8.6920140000000007E-2</v>
@@ -3001,7 +2731,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>-0.40737697</v>
@@ -3024,7 +2754,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>-0.25921835999999998</v>
@@ -3047,7 +2777,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>-0.18431923</v>
@@ -3070,7 +2800,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>-0.17754750999999999</v>
@@ -3093,7 +2823,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>-0.13676073999999999</v>
@@ -3116,7 +2846,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>-0.23075065</v>
@@ -3139,7 +2869,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>-0.11064875</v>
@@ -3162,7 +2892,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>-8.0310049999999994E-2</v>
@@ -3185,7 +2915,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>-9.1924309999999995E-2</v>
@@ -3208,7 +2938,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>-0.13531604</v>
@@ -3231,7 +2961,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>-8.2985160000000002E-2</v>
@@ -3254,7 +2984,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>-4.9922139999999997E-2</v>
@@ -3277,7 +3007,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>-0.23236212000000001</v>
@@ -3300,7 +3030,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>-4.8110604000000001E-2</v>
@@ -3323,7 +3053,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>-0.16536313</v>
@@ -3346,7 +3076,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>-4.7641813999999998E-2</v>
@@ -3369,7 +3099,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>-5.334854E-2</v>
@@ -3392,7 +3122,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>-0.12616347999999999</v>
@@ -3415,7 +3145,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>-0.21214947000000001</v>
@@ -3438,7 +3168,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>-0.15091607000000001</v>
@@ -3461,7 +3191,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>-5.0729096000000001E-2</v>
@@ -3484,7 +3214,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>-0.13143157999999999</v>
@@ -3507,7 +3237,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>-0.34313791999999999</v>
@@ -3530,7 +3260,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>-0.12728858000000001</v>
@@ -3553,7 +3283,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>-0.14552593</v>
@@ -3576,7 +3306,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>-0.22942114</v>
@@ -3606,7 +3336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63799EE4-50F1-424F-ADD4-48FF2DAE7ADD}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -3620,21 +3350,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>-8.2763374000000001E-2</v>
@@ -3648,7 +3378,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>-0.15819925000000001</v>
@@ -3662,7 +3392,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>-0.12718916</v>
@@ -3676,7 +3406,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>-0.16253448000000001</v>
@@ -3690,7 +3420,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>-3.0701399000000001E-2</v>
@@ -3704,7 +3434,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>-0.28064802</v>
@@ -3718,7 +3448,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>-0.36390169999999999</v>
@@ -3732,7 +3462,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>-0.12026915000000001</v>
@@ -3746,7 +3476,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>-1.2439609000000001E-2</v>
@@ -3760,7 +3490,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3774,7 +3504,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>-0.11804652</v>
@@ -3788,7 +3518,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>-3.9067923999999997E-2</v>
@@ -3802,7 +3532,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>-0.35535386000000002</v>
@@ -3816,7 +3546,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>-0.24220535000000001</v>
@@ -3830,7 +3560,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>-0.25966755000000002</v>
@@ -3844,7 +3574,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>-0.15296193999999999</v>
@@ -3858,7 +3588,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>-0.14624377999999999</v>
@@ -3872,7 +3602,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>-0.15955059999999999</v>
@@ -3886,7 +3616,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>-8.4100839999999996E-2</v>
@@ -3900,7 +3630,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>-0.1049788</v>
@@ -3914,7 +3644,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>-0.14894909000000001</v>
@@ -3928,7 +3658,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>-0.14695536000000001</v>
@@ -3942,7 +3672,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>-8.6307049999999996E-2</v>
@@ -3956,7 +3686,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>-6.0868084000000003E-2</v>
@@ -3970,7 +3700,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>-0.20432243</v>
@@ -3984,7 +3714,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>-3.1799078000000001E-2</v>
@@ -3998,7 +3728,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>-0.18861622</v>
@@ -4012,7 +3742,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>-4.2409599999999999E-2</v>
@@ -4026,7 +3756,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>-7.3577050000000005E-2</v>
@@ -4040,7 +3770,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>-9.0245010000000001E-2</v>
@@ -4054,7 +3784,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>-0.17602259000000001</v>
@@ -4068,7 +3798,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>-0.14009543999999999</v>
@@ -4082,7 +3812,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>-6.5200984000000003E-2</v>
@@ -4096,7 +3826,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>-0.12879573999999999</v>
@@ -4110,7 +3840,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>-0.26636495999999998</v>
@@ -4124,7 +3854,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>-0.11101317400000001</v>
@@ -4138,7 +3868,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>-8.2497835000000005E-2</v>
@@ -4152,7 +3882,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>-0.15752235000000001</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacko\Documents\courses\IntroAI\Final Project\AdversarialAttacks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90F51B-3894-4BDF-A037-C035847EDDE7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9348DA13-47D9-46D3-A1B8-AF56A03697D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1357,16 +1357,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1074420</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>463980</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>5940</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>578280</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1695,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacko\Documents\courses\IntroAI\Final Project\AdversarialAttacks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9348DA13-47D9-46D3-A1B8-AF56A03697D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F770A6-B2E4-4EE2-AC64-E8514B92B737}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ChangeBestPixel2Iterations (Tes" sheetId="3" r:id="rId2"/>
-    <sheet name="ChangeBest2Pixels (Test 29)" sheetId="2" r:id="rId3"/>
+    <sheet name="Change All Pixels" sheetId="5" r:id="rId2"/>
+    <sheet name="dualAttack" sheetId="4" r:id="rId3"/>
+    <sheet name="Change 1 Best Pixel - 2 Iterati" sheetId="3" r:id="rId4"/>
+    <sheet name="Change 2 Best Pixels (Test 29) " sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="69">
   <si>
     <t>Image</t>
   </si>
@@ -198,6 +200,48 @@
   </si>
   <si>
     <t>Change All Pixels by 20 to 50 (randomly selected)</t>
+  </si>
+  <si>
+    <t>TargetImage</t>
+  </si>
+  <si>
+    <t>ChangeInConfidencePhase1</t>
+  </si>
+  <si>
+    <t>PercentChangeInConfidencePhase1</t>
+  </si>
+  <si>
+    <t>SuccessPhase1</t>
+  </si>
+  <si>
+    <t>ChangeInConfidencePhase2</t>
+  </si>
+  <si>
+    <t>PercentChangeInConfidencePhase2</t>
+  </si>
+  <si>
+    <t>SuccessPhase2</t>
+  </si>
+  <si>
+    <t>ChangeInConfidence</t>
+  </si>
+  <si>
+    <t>PercentChangeInConfidence</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Change All Pixels by 30 to 50 (randomly selected)</t>
+  </si>
+  <si>
+    <t>Dual Attack 20 to 50</t>
+  </si>
+  <si>
+    <t>Dual Attack 20 to 60</t>
+  </si>
+  <si>
+    <t>Change All Pixels by 20 to 60 (randomly selected)</t>
   </si>
 </sst>
 </file>
@@ -447,7 +491,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.14243206482789472</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,7 +576,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.22730460644736838</c:v>
+                  <c:v>0.25713809565789469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,7 +663,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.25232126836842095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,7 +707,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8399249476315791</c:v>
+                  <c:v>0.59156770263157898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,6 +715,132 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FB24-4E61-839D-929F8C27CE65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Change All Pixels by 30 to 50 (randomly selected)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.63980839973684211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBA6-433D-8915-07D48E9F64DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dual Attack 20 to 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.65738658894736834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBA6-433D-8915-07D48E9F64DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Change All Pixels by 20 to 60 (randomly selected)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBA6-433D-8915-07D48E9F64DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dual Attack 20 to 60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FBA6-433D-8915-07D48E9F64DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -814,8 +984,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.60584463539015809"/>
           <c:y val="8.475712430039932E-2"/>
-          <c:w val="0.39415519828082318"/>
-          <c:h val="0.61618556590813112"/>
+          <c:w val="0.33923291234165348"/>
+          <c:h val="0.87752727412205001"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1039,121 +1209,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.91109680000000004</c:v>
+                  <c:v>0.62451060000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59697217000000002</c:v>
+                  <c:v>0.8125038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87879675999999995</c:v>
+                  <c:v>0.53003960000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99791160000000001</c:v>
+                  <c:v>0.93251675000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35594130000000002</c:v>
+                  <c:v>0.48943046000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97999340000000001</c:v>
+                  <c:v>0.69492023999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98694249999999994</c:v>
+                  <c:v>0.80805899999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83760369999999995</c:v>
+                  <c:v>0.47965469999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93953679999999995</c:v>
+                  <c:v>0.53836536000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70322879999999999</c:v>
+                  <c:v>0.86881770000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96363469999999996</c:v>
+                  <c:v>0.62491494000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.85810149999999996</c:v>
+                  <c:v>0.52932376000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78860145999999998</c:v>
+                  <c:v>0.84952253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91346585999999996</c:v>
+                  <c:v>0.40567964000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93029576999999997</c:v>
+                  <c:v>0.87761509999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94109493</c:v>
+                  <c:v>0.9439284</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.65979690000000002</c:v>
+                  <c:v>0.43829180000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.87602729999999995</c:v>
+                  <c:v>0.31780755999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99864200000000003</c:v>
+                  <c:v>0.92729980000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99233245999999997</c:v>
+                  <c:v>0.96981150000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.69709969999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99611360000000004</c:v>
+                  <c:v>0.87284154000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.65887669999999998</c:v>
+                  <c:v>0.59092164000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.76155209999999995</c:v>
+                  <c:v>0.70973589999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97230479999999997</c:v>
+                  <c:v>0.86761630000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97351896999999998</c:v>
+                  <c:v>0.35638750000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.57683026999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9551984</c:v>
+                  <c:v>0.85073273999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8114633</c:v>
+                  <c:v>0.25109175</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.67279374999999997</c:v>
+                  <c:v>0.75278794999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.93795879999999998</c:v>
+                  <c:v>0.107596</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92445564000000002</c:v>
+                  <c:v>0.35575162999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.69456923000000004</c:v>
+                  <c:v>0.21945864000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92421509999999996</c:v>
+                  <c:v>0.64139736000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.36385304000000002</c:v>
+                  <c:v>0.55757710000000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.94107370000000001</c:v>
+                  <c:v>0.88798635999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95199590000000001</c:v>
+                  <c:v>0.45847969999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99325830000000004</c:v>
+                  <c:v>0.33619735000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.8399249476315791</c:v>
+                  <c:v>0.59156770263157898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,16 +1491,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>449580</xdr:rowOff>
+      <xdr:rowOff>426720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1357,16 +1527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>578280</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>448740</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>59280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1693,22 +1863,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="6" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="1027" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,690 +1895,868 @@
       <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.14780499</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2">
-        <v>0.11134028999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.25098251999999999</v>
-      </c>
+        <v>0.17088406</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>0.91109680000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.62451060000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.83459413000000005</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>0.82110304000000001</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.13733429</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2">
-        <v>0.18651234999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.28101596000000001</v>
-      </c>
+        <v>0.23647207000000001</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>0.59697217000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.8125038</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.84391737</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>0.8444412</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>6.0807973000000001E-2</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <v>0.14859386999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.18852587000000001</v>
-      </c>
+        <v>0.19412247999999999</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>0.87879675999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.53003960000000006</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.73156582999999997</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>0.70467860000000004</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.11091848999999999</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2">
-        <v>0.31359841999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.23951833</v>
-      </c>
+        <v>0.21121055</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>0.99791160000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.93251675000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.95066470000000003</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>0.92395079999999996</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>1.5239915999999999E-2</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2">
-        <v>3.1632670000000002E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.072382E-2</v>
-      </c>
+        <v>3.1110847000000001E-2</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>0.35594130000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.48943046000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.36704573000000001</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>0.48733208</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.43089264999999999</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2">
-        <v>0.5318967</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.60806780000000005</v>
-      </c>
+        <v>0.54804843999999997</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <v>0.97999340000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.69492023999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.88760006000000002</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.73386914000000003</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.20237619000000001</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>0.43813734999999998</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.33985515999999999</v>
-      </c>
+        <v>0.31799588000000001</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>0.98694249999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.80805899999999997</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.78771376999999998</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.86298823000000002</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>8.9535779999999995E-2</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>0.20911813000000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.30988294</v>
-      </c>
+        <v>0.28235455999999998</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <v>0.83760369999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.47965469999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.38614710000000002</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>0.39691314</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>1.7951706000000001E-2</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2">
-        <v>1.4987308E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.8163696E-2</v>
-      </c>
+        <v>3.3044074E-2</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <v>0.93953679999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.53836536000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.62189550000000005</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.44881130000000002</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>7.1529560000000006E-2</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.23207620000000001</v>
-      </c>
+        <v>0.17047435</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2">
-        <v>0.70322879999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.86881770000000003</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.86307657000000004</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.89803489999999997</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2">
-        <v>0.19061637000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>0.96363469999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.62491494000000003</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.66522999999999999</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.51452803999999996</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>1.4636369999999999E-2</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2">
-        <v>4.6380440000000002E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.10318937</v>
-      </c>
+        <v>0.100842156</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>0.85810149999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.52932376000000003</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.58040650000000005</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>0.63877355999999996</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.36042449999999998</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2">
-        <v>0.48757004999999998</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.55894935000000001</v>
-      </c>
+        <v>0.51221969999999994</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2">
-        <v>0.78860145999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.84952253</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.90800040000000004</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.83100269999999998</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.40293225999999999</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2">
-        <v>0.52471226000000004</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.56156919999999999</v>
-      </c>
+        <v>0.53124879999999997</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2">
-        <v>0.91346585999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.40567964000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.49965345999999999</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>0.59730589999999995</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.17687037999999999</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2">
-        <v>0.41998725999999997</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.29811862</v>
-      </c>
+        <v>0.42835867</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2">
-        <v>0.93029576999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.87761509999999998</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.63242520000000002</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>0.86320657000000001</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.11114834</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2">
-        <v>0.2619995</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.30411068000000002</v>
-      </c>
+        <v>0.31807760000000002</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2">
-        <v>0.94109493</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.9439284</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.97471034999999995</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>0.91934824000000004</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.15197858</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2">
-        <v>0.27267682999999998</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.25499535000000001</v>
-      </c>
+        <v>0.28539035000000001</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2">
-        <v>0.65979690000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.43829180000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.50755589999999995</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>0.32116535000000002</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.12974574</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2">
-        <v>0.30051133000000002</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.43461564000000003</v>
-      </c>
+        <v>0.39358720000000003</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2">
-        <v>0.87602729999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.31780755999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.41286634999999999</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <v>0.56280419999999998</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>9.0087360000000005E-2</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2">
-        <v>0.10568027000000001</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.13904010999999999</v>
-      </c>
+        <v>0.25517877999999999</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <v>0.99864200000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.92729980000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.97117220000000004</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>0.94150619999999996</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>4.5480218000000003E-2</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="2">
-        <v>0.13867424</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.10608745999999999</v>
-      </c>
+        <v>0.24843735</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2">
-        <v>0.99233245999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.96981150000000005</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.98911357</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>0.97324270000000002</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>4.8162665E-2</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2">
-        <v>0.16035342</v>
-      </c>
-      <c r="D22" s="2">
-        <v>9.8962519999999998E-2</v>
-      </c>
+        <v>0.17796471999999999</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2">
-        <v>0.69709969999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <v>0.17796471999999999</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.2405736</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="2">
-        <v>0.38649228000000002</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.35588091999999999</v>
-      </c>
+        <v>0.39527884000000002</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2">
-        <v>0.99611360000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.87284154000000003</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.82965279999999997</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>0.79811465999999998</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <v>4.1847450000000001E-2</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <v>0.119902514</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.11528756499999999</v>
-      </c>
+        <v>0.122119226</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2">
-        <v>0.65887669999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.59092164000000003</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.72473180000000004</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>0.52390130000000001</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>1.4910090000000001E-2</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="2">
-        <v>0.13312879</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.109188154</v>
-      </c>
+        <v>0.10648418</v>
+      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2">
-        <v>0.76155209999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.70973589999999998</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.73515889999999995</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <v>0.71242609999999995</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.42979299999999998</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2">
-        <v>0.52237210000000001</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.59405859999999999</v>
-      </c>
+        <v>0.64544815</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2">
-        <v>0.97230479999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.86761630000000001</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.91805170000000003</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>0.88047403000000002</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>2.8942552999999999E-2</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2">
-        <v>3.3355843000000003E-2</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5.0465919999999997E-2</v>
-      </c>
+        <v>4.6075829999999998E-2</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2">
-        <v>0.97351896999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.35638750000000002</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.31351590000000001</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>0.40513234999999997</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>0.10434584</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2">
-        <v>0.24505432999999999</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.21484342000000001</v>
-      </c>
+        <v>0.26319419999999999</v>
+      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="2">
-        <v>0.57683026999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <v>0.26319419999999999</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>1.1841046E-4</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="2">
-        <v>5.3731389999999997E-2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>6.0360413000000002E-2</v>
-      </c>
+        <v>3.7968528000000001E-2</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2">
-        <v>0.9551984</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.85073273999999999</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.94006679999999998</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <v>0.86270179999999996</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
-        <v>2.1255888000000001E-2</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2">
-        <v>7.6185009999999997E-2</v>
-      </c>
-      <c r="D30" s="2">
-        <v>5.5239499999999997E-2</v>
-      </c>
+        <v>6.7431019999999994E-2</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2">
-        <v>0.8114633</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.25109175</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.48659465000000002</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
+        <v>0.43057965999999998</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>0.14046863000000001</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2">
-        <v>0.13159314</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.18396860000000001</v>
-      </c>
+        <v>0.23364018</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2">
-        <v>0.67279374999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.75278794999999998</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.60237569999999996</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2">
+        <v>0.76662710000000001</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>0.34782400000000002</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2">
-        <v>0.39467096000000002</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.47567323</v>
-      </c>
+        <v>0.44970152000000002</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2">
-        <v>0.93795879999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.107596</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.27245063000000003</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>0.44970152000000002</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
-        <v>0.20347956</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2">
-        <v>0.36175308</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.38969398</v>
-      </c>
+        <v>0.3310343</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2">
-        <v>0.92445564000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.35575162999999999</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.70819365999999995</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
+        <v>0.71526986000000004</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>3.8684179999999999E-2</v>
-      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2">
-        <v>6.9945530000000006E-2</v>
-      </c>
-      <c r="D34" s="2">
-        <v>5.4420549999999998E-2</v>
-      </c>
+        <v>5.3197979999999999E-2</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2">
-        <v>0.69456923000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.21945864000000001</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.22922385000000001</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>0.15236051</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>0.14223652000000001</v>
-      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2">
-        <v>0.20617062999999999</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.21038997000000001</v>
-      </c>
+        <v>0.23090522999999999</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2">
-        <v>0.92421509999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.64139736000000003</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.44524896000000003</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2">
+        <v>0.58854240000000002</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
-        <v>0.47186266999999998</v>
-      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="2">
-        <v>0.53131293999999996</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.68445045000000004</v>
-      </c>
+        <v>0.70090249999999998</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2">
-        <v>0.36385304000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.55757710000000005</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.54416980000000004</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2">
+        <v>0.70090249999999998</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>8.2976713999999993E-2</v>
-      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="2">
-        <v>0.12669335000000001</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.14526759</v>
-      </c>
+        <v>0.16513021</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <v>0.94107370000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.88798635999999997</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.94173205000000004</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2">
+        <v>0.89064233999999998</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>7.1077470000000004E-2</v>
-      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2">
-        <v>9.9087159999999994E-2</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.17478943999999999</v>
-      </c>
+        <v>0.12307560400000001</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2">
-        <v>0.95199590000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.45847969999999999</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.52348859999999997</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2">
+        <v>0.74810860000000001</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
-        <v>0.21616393</v>
-      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="2">
-        <v>0.25114693999999999</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.36577929999999997</v>
-      </c>
+        <v>0.35263749999999999</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2">
-        <v>0.99325830000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.33619735000000001</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.68270869999999995</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2">
+        <v>0.62904084000000005</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="e">
         <f>AVERAGE(B1:B39)</f>
-        <v>0.14243206482789472</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C40" s="2">
         <f>AVERAGE(C1:C39)</f>
-        <v>0.22730460644736838</v>
-      </c>
-      <c r="D40" s="2">
+        <v>0.25713809565789469</v>
+      </c>
+      <c r="D40" s="2" t="e">
         <f>AVERAGE(D1:D39)</f>
-        <v>0.25232126836842095</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E40" s="2">
         <f>AVERAGE(E1:E39)</f>
-        <v>0.8399249476315791</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42">
+        <v>0.59156770263157898</v>
+      </c>
+      <c r="F40" s="2">
+        <f>AVERAGE(F1:F39)</f>
+        <v>0.63980839973684211</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <f>AVERAGE(H1:H39)</f>
+        <v>0.65738658894736834</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" t="e">
         <f>STDEV(B2:B39)</f>
-        <v>0.13321151394550365</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:E42" si="0">STDEV(C2:C39)</f>
-        <v>0.16342673706848609</v>
-      </c>
-      <c r="D42">
+        <f t="shared" ref="C42:F42" si="0">STDEV(C2:C39)</f>
+        <v>0.17695163497054117</v>
+      </c>
+      <c r="D42" t="e">
         <f t="shared" si="0"/>
-        <v>0.18298053129231781</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>0.16983053627859168</v>
+        <v>0.27176750788329074</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.26494869843197988</v>
       </c>
     </row>
   </sheetData>
@@ -2418,11 +2767,1501 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492CF4B5-0BA2-4FE0-A894-AF129AC0B960}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-0.62038479999999996</v>
+      </c>
+      <c r="C2">
+        <v>-0.83459413000000005</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>-0.71580832999999999</v>
+      </c>
+      <c r="C3">
+        <v>-0.84391737</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.62618494000000002</v>
+      </c>
+      <c r="C4">
+        <v>-0.73156582999999997</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-0.49271863999999999</v>
+      </c>
+      <c r="C5">
+        <v>-0.95066470000000003</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.35623986000000002</v>
+      </c>
+      <c r="C6">
+        <v>-0.36704573000000001</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-0.46833005999999999</v>
+      </c>
+      <c r="C7">
+        <v>-0.88760006000000002</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-0.65424775999999996</v>
+      </c>
+      <c r="C8">
+        <v>-0.78771376999999998</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-0.222083</v>
+      </c>
+      <c r="C9">
+        <v>-0.38614710000000002</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-0.51617919999999995</v>
+      </c>
+      <c r="C10">
+        <v>-0.62189550000000005</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-0.35928237000000002</v>
+      </c>
+      <c r="C11">
+        <v>-0.86307657000000004</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-0.41196927</v>
+      </c>
+      <c r="C12">
+        <v>-0.66522999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-0.48889737999999999</v>
+      </c>
+      <c r="C13">
+        <v>-0.58040650000000005</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-0.66177459999999999</v>
+      </c>
+      <c r="C14">
+        <v>-0.90800040000000004</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-0.23063828</v>
+      </c>
+      <c r="C15">
+        <v>-0.49965345999999999</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-0.39101255000000001</v>
+      </c>
+      <c r="C16">
+        <v>-0.63242520000000002</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-0.56906060000000003</v>
+      </c>
+      <c r="C17">
+        <v>-0.97471034999999995</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-0.27221562999999999</v>
+      </c>
+      <c r="C18">
+        <v>-0.50755589999999995</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.21920329999999999</v>
+      </c>
+      <c r="C19">
+        <v>-0.41286634999999999</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-0.77286326999999999</v>
+      </c>
+      <c r="C20">
+        <v>-0.97117220000000004</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-0.74877609999999994</v>
+      </c>
+      <c r="C21">
+        <v>-0.98911357</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-0.31545758000000002</v>
+      </c>
+      <c r="C23">
+        <v>-0.82965279999999997</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-0.5216693</v>
+      </c>
+      <c r="C24">
+        <v>-0.72473180000000004</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-0.33612350000000002</v>
+      </c>
+      <c r="C25">
+        <v>-0.73515889999999995</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-0.35908990000000002</v>
+      </c>
+      <c r="C26">
+        <v>-0.91805170000000003</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-0.29888367999999998</v>
+      </c>
+      <c r="C27">
+        <v>-0.31351590000000001</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-0.74198439999999999</v>
+      </c>
+      <c r="C29">
+        <v>-0.94006679999999998</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-0.46993755999999998</v>
+      </c>
+      <c r="C30">
+        <v>-0.48659465000000002</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-0.41310210000000003</v>
+      </c>
+      <c r="C31">
+        <v>-0.60237569999999996</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-0.12151252999999999</v>
+      </c>
+      <c r="C32">
+        <v>-0.27245063000000003</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-0.27426085</v>
+      </c>
+      <c r="C33">
+        <v>-0.70819365999999995</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-0.21367514000000001</v>
+      </c>
+      <c r="C34">
+        <v>-0.22922385000000001</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-0.27814907</v>
+      </c>
+      <c r="C35">
+        <v>-0.44524896000000003</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-0.27281052</v>
+      </c>
+      <c r="C36">
+        <v>-0.54416980000000004</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>-0.82517874000000002</v>
+      </c>
+      <c r="C37">
+        <v>-0.94173205000000004</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-0.43584531999999998</v>
+      </c>
+      <c r="C38">
+        <v>-0.52348859999999997</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-0.42820304999999997</v>
+      </c>
+      <c r="C39">
+        <v>-0.68270869999999995</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E15B897-1EA8-4ECD-9A19-1E112064D14B}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-0.12702447</v>
+      </c>
+      <c r="C2">
+        <v>-0.17088406</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-0.61035640000000002</v>
+      </c>
+      <c r="F2">
+        <v>-0.82110304000000001</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>-0.20057493000000001</v>
+      </c>
+      <c r="C3">
+        <v>-0.23647207000000001</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-0.71625260000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.8444412</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.16615944999999999</v>
+      </c>
+      <c r="C4">
+        <v>-0.19412247999999999</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-0.60317074999999998</v>
+      </c>
+      <c r="F4">
+        <v>-0.70467860000000004</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-0.10946801</v>
+      </c>
+      <c r="C5">
+        <v>-0.21121055</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-0.47887312999999998</v>
+      </c>
+      <c r="F5">
+        <v>-0.92395079999999996</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-3.0194938000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>-3.1110847000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-0.47298494000000002</v>
+      </c>
+      <c r="F6">
+        <v>-0.48733208</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-0.28917027000000001</v>
+      </c>
+      <c r="C7">
+        <v>-0.54804843999999997</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-0.38721602999999999</v>
+      </c>
+      <c r="F7">
+        <v>-0.73386914000000003</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-0.26411635</v>
+      </c>
+      <c r="C8">
+        <v>-0.31799588000000001</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-0.71676810000000002</v>
+      </c>
+      <c r="F8">
+        <v>-0.86298823000000002</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-0.16238928</v>
+      </c>
+      <c r="C9">
+        <v>-0.28235455999999998</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-0.22827481999999999</v>
+      </c>
+      <c r="F9">
+        <v>-0.39691314</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-2.7426898000000002E-2</v>
+      </c>
+      <c r="C10">
+        <v>-3.3044074E-2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-0.37251768000000002</v>
+      </c>
+      <c r="F10">
+        <v>-0.44881130000000002</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-7.0965230000000004E-2</v>
+      </c>
+      <c r="C11">
+        <v>-0.17047435</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-0.37383485</v>
+      </c>
+      <c r="F11">
+        <v>-0.89803489999999997</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>-0.31864130000000002</v>
+      </c>
+      <c r="F12">
+        <v>-0.51452803999999996</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-8.4943000000000005E-2</v>
+      </c>
+      <c r="C13">
+        <v>-0.100842156</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>-0.53806209999999999</v>
+      </c>
+      <c r="F13">
+        <v>-0.63877355999999996</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-0.37331920000000002</v>
+      </c>
+      <c r="C14">
+        <v>-0.51221969999999994</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>-0.60565659999999999</v>
+      </c>
+      <c r="F14">
+        <v>-0.83100269999999998</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-0.24522258</v>
+      </c>
+      <c r="C15">
+        <v>-0.53124879999999997</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>-0.27571430000000002</v>
+      </c>
+      <c r="F15">
+        <v>-0.59730589999999995</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-0.26484337000000002</v>
+      </c>
+      <c r="C16">
+        <v>-0.42835867</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>-0.53369886</v>
+      </c>
+      <c r="F16">
+        <v>-0.86320657000000001</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-0.18570175999999999</v>
+      </c>
+      <c r="C17">
+        <v>-0.31807760000000002</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>-0.53673879999999996</v>
+      </c>
+      <c r="F17">
+        <v>-0.91934824000000004</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-0.15306237</v>
+      </c>
+      <c r="C18">
+        <v>-0.28539035000000001</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>-0.17224946999999999</v>
+      </c>
+      <c r="F18">
+        <v>-0.32116535000000002</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.20896741999999999</v>
+      </c>
+      <c r="C19">
+        <v>-0.39358720000000003</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>-0.29880985999999998</v>
+      </c>
+      <c r="F19">
+        <v>-0.56280419999999998</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-0.20307243</v>
+      </c>
+      <c r="C20">
+        <v>-0.25517877999999999</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>-0.74925494000000004</v>
+      </c>
+      <c r="F20">
+        <v>-0.94150619999999996</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-0.18807136999999999</v>
+      </c>
+      <c r="C21">
+        <v>-0.24843735</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>-0.73676156999999998</v>
+      </c>
+      <c r="F21">
+        <v>-0.97324270000000002</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-0.16530787999999999</v>
+      </c>
+      <c r="C22">
+        <v>-0.17796471999999999</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>-0.16530787999999999</v>
+      </c>
+      <c r="F22">
+        <v>-0.17796471999999999</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-0.15029625999999999</v>
+      </c>
+      <c r="C23">
+        <v>-0.39527884000000002</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-0.30346587000000003</v>
+      </c>
+      <c r="F23">
+        <v>-0.79811465999999998</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-8.7902665000000005E-2</v>
+      </c>
+      <c r="C24">
+        <v>-0.122119226</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>-0.37710949999999999</v>
+      </c>
+      <c r="F24">
+        <v>-0.52390130000000001</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-4.8685850000000003E-2</v>
+      </c>
+      <c r="C25">
+        <v>-0.10648418</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>-0.32572980000000001</v>
+      </c>
+      <c r="F25">
+        <v>-0.71242609999999995</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-0.25246279999999999</v>
+      </c>
+      <c r="C26">
+        <v>-0.64544815</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>-0.34439164</v>
+      </c>
+      <c r="F26">
+        <v>-0.88047403000000002</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-4.3925405000000001E-2</v>
+      </c>
+      <c r="C27">
+        <v>-4.6075829999999998E-2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>-0.38622426999999998</v>
+      </c>
+      <c r="F27">
+        <v>-0.40513234999999997</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-0.20257829999999999</v>
+      </c>
+      <c r="C28">
+        <v>-0.26319419999999999</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>-0.20257829999999999</v>
+      </c>
+      <c r="F28">
+        <v>-0.26319419999999999</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-2.9968142999999999E-2</v>
+      </c>
+      <c r="C29">
+        <v>-3.7968528000000001E-2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>-0.68092109999999995</v>
+      </c>
+      <c r="F29">
+        <v>-0.86270179999999996</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-6.5122719999999995E-2</v>
+      </c>
+      <c r="C30">
+        <v>-6.7431019999999994E-2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>-0.41584009999999999</v>
+      </c>
+      <c r="F30">
+        <v>-0.43057965999999998</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-0.16022765999999999</v>
+      </c>
+      <c r="C31">
+        <v>-0.23364018</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>-0.52574370000000004</v>
+      </c>
+      <c r="F31">
+        <v>-0.76662710000000001</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-0.20056613000000001</v>
+      </c>
+      <c r="C32">
+        <v>-0.44970152000000002</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>-0.20056613000000001</v>
+      </c>
+      <c r="F32">
+        <v>-0.44970152000000002</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-0.12819903999999999</v>
+      </c>
+      <c r="C33">
+        <v>-0.3310343</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>-0.27700122999999999</v>
+      </c>
+      <c r="F33">
+        <v>-0.71526986000000004</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-4.9589454999999998E-2</v>
+      </c>
+      <c r="C34">
+        <v>-5.3197979999999999E-2</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>-0.14202559000000001</v>
+      </c>
+      <c r="F34">
+        <v>-0.15236051</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-0.14424756</v>
+      </c>
+      <c r="C35">
+        <v>-0.23090522999999999</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>-0.36766514</v>
+      </c>
+      <c r="F35">
+        <v>-0.58854240000000002</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-0.35138589999999997</v>
+      </c>
+      <c r="C36">
+        <v>-0.70090249999999998</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>-0.35138589999999997</v>
+      </c>
+      <c r="F36">
+        <v>-0.70090249999999998</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>-0.14469290000000001</v>
+      </c>
+      <c r="C37">
+        <v>-0.16513021</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>-0.78041214000000003</v>
+      </c>
+      <c r="F37">
+        <v>-0.89064233999999998</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-0.10247009999999999</v>
+      </c>
+      <c r="C38">
+        <v>-0.12307560400000001</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>-0.6228591</v>
+      </c>
+      <c r="F38">
+        <v>-0.74810860000000001</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-0.22117844</v>
+      </c>
+      <c r="C39">
+        <v>-0.35263749999999999</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>-0.39454191999999999</v>
+      </c>
+      <c r="F39">
+        <v>-0.62904084000000005</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B7B863-F41C-4E21-9C12-0AEC62BF9231}">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3332,7 +5171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63799EE4-50F1-424F-ADD4-48FF2DAE7ADD}">
   <dimension ref="A1:D39"/>
   <sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacko\Documents\courses\IntroAI\Final Project\AdversarialAttacks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04F8737-B902-4613-A69E-5AF2E1365341}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E395BF-B47F-40F7-BECD-BE9132DC10D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Change All Pixels" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -175,28 +174,28 @@
     <t>Percent Change</t>
   </si>
   <si>
-    <t>Change 2 Best Pixels by 128 (Test 56)</t>
-  </si>
-  <si>
-    <t>Change All Pixels by 20 to 50</t>
-  </si>
-  <si>
     <t>Attack</t>
-  </si>
-  <si>
-    <t>Change 1 Best Pixel by 128 (Test 56)</t>
-  </si>
-  <si>
-    <t>Change 1 Best Pixel by 128 - 2 Iterations (Test 56+56)</t>
   </si>
   <si>
     <t>Standard Deviation</t>
   </si>
   <si>
-    <t>Change All Pixels by 30 to 60</t>
+    <t>Attack A: Change 1 Best Pixel by 128 (Test 56)</t>
   </si>
   <si>
-    <t>Dual Attack - 30 to 60</t>
+    <t>Attack B: Change 2 Best Pixels by 128 (Test 56)</t>
+  </si>
+  <si>
+    <t>Attack C: Change 1 Best Pixel by 128 - 2 Iterations (Test 56+56)</t>
+  </si>
+  <si>
+    <t>Attack D: Change All Pixels by 20 to 50</t>
+  </si>
+  <si>
+    <t>Attack E: Change All Pixels by 30 to 60</t>
+  </si>
+  <si>
+    <t>Attack F: Dual Attack - 30 to 60</t>
   </si>
 </sst>
 </file>
@@ -363,7 +362,7 @@
           <c:x val="0.17159359440535049"/>
           <c:y val="7.3739856080819427E-2"/>
           <c:w val="0.39738148225768355"/>
-          <c:h val="0.7613802697962454"/>
+          <c:h val="0.81637886235194768"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -379,7 +378,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change 1 Best Pixel by 128 (Test 56)</c:v>
+                  <c:v>Attack A: Change 1 Best Pixel by 128 (Test 56)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -464,7 +463,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change 2 Best Pixels by 128 (Test 56)</c:v>
+                  <c:v>Attack B: Change 2 Best Pixels by 128 (Test 56)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -549,7 +548,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change 1 Best Pixel by 128 - 2 Iterations (Test 56+56)</c:v>
+                  <c:v>Attack C: Change 1 Best Pixel by 128 - 2 Iterations (Test 56+56)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -636,7 +635,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change All Pixels by 20 to 50</c:v>
+                  <c:v>Attack D: Change All Pixels by 20 to 50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -680,7 +679,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change All Pixels by 30 to 60</c:v>
+                  <c:v>Attack E: Change All Pixels by 30 to 60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -718,7 +717,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dual Attack - 30 to 60</c:v>
+                  <c:v>Attack F: Dual Attack - 30 to 60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -882,7 +881,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.60584463539015809"/>
           <c:y val="8.475712430039932E-2"/>
-          <c:w val="0.34234914916377185"/>
+          <c:w val="0.34767103718449727"/>
           <c:h val="0.86691991641946176"/>
         </c:manualLayout>
       </c:layout>
@@ -969,7 +968,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change All Pixels by 30 to 60</c:v>
+                  <c:v>Attack E: Change All Pixels by 30 to 60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1422,11 +1421,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change 1 Best Pixel by 128 (Test 56)</c:v>
+                  <c:v>Attack A: Change 1 Best Pixel by 128 (Test 56)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -1455,7 +1459,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change 2 Best Pixels by 128 (Test 56)</c:v>
+                  <c:v>Attack B: Change 2 Best Pixels by 128 (Test 56)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1540,11 +1544,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change 1 Best Pixel by 128 - 2 Iterations (Test 56+56)</c:v>
+                  <c:v>Attack C: Change 1 Best Pixel by 128 - 2 Iterations (Test 56+56)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -1573,7 +1584,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change All Pixels by 20 to 50</c:v>
+                  <c:v>Attack D: Change All Pixels by 20 to 50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1617,7 +1628,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change All Pixels by 30 to 60</c:v>
+                  <c:v>Attack E: Change All Pixels by 30 to 60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1655,7 +1666,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dual Attack - 30 to 60</c:v>
+                  <c:v>Attack F: Dual Attack - 30 to 60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1762,13 +1773,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>Percent Decrease</a:t>
+                  <a:t>Percent of Test Images Misclassified</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                  <a:t> in Classifier Confidence</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1100"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1882,7 +1888,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>172507</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1919,7 +1925,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>67317</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>42984</xdr:rowOff>
+      <xdr:rowOff>42985</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2291,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2307,21 +2313,21 @@
     <col min="8" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>53</v>
@@ -3206,7 +3212,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2">
         <f>AVERAGE(B2:B39)</f>
@@ -3235,7 +3241,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <f>STDEV(B2:B39)</f>
@@ -3273,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBB7245-ACF7-4A9C-8FCF-AE2C55D8DB2E}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3292,16 +3298,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>53</v>
@@ -4186,7 +4192,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" ref="B40:G40" si="0">SUM(B2:B39)/COUNT(B2:B39)</f>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacko\Documents\courses\IntroAI\Final Project\AdversarialAttacks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E395BF-B47F-40F7-BECD-BE9132DC10D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14495EBE-F609-471F-BC52-A51AE865D6D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conf" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="56">
   <si>
     <t>Image</t>
   </si>
@@ -189,20 +189,23 @@
     <t>Attack C: Change 1 Best Pixel by 128 - 2 Iterations (Test 56+56)</t>
   </si>
   <si>
-    <t>Attack D: Change All Pixels by 20 to 50</t>
+    <t>Attack E: Change All Pixels by 60 to 90</t>
   </si>
   <si>
-    <t>Attack E: Change All Pixels by 30 to 60</t>
+    <t>Attack D: Change All Pixels by 30 to 60</t>
   </si>
   <si>
-    <t>Attack F: Dual Attack - 30 to 60</t>
+    <t>Attack G: Dual Attack - 30 to 60</t>
+  </si>
+  <si>
+    <t>Attack F: Change All Pixels by 120 to 150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -231,6 +234,13 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -260,6 +270,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,6 +344,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF5089BC"/>
+      <color rgb="FF508958"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -627,7 +642,7 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="6"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -635,7 +650,45 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Attack D: Change All Pixels by 20 to 50</c:v>
+                  <c:v>Attack D: Change All Pixels by 30 to 60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Conf!$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.65858169860526317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBA6-433D-8915-07D48E9F64DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Conf!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attack E: Change All Pixels by 60 to 90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -654,12 +707,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Conf!$E$40</c:f>
+              <c:f>Conf!$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.59156770263157898</c:v>
+                  <c:v>0.7458141031315787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,45 +724,7 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Conf!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Attack E: Change All Pixels by 30 to 60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Conf!$F$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.65858169860526317</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FBA6-433D-8915-07D48E9F64DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="4"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
@@ -717,7 +732,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Attack F: Dual Attack - 30 to 60</c:v>
+                  <c:v>Attack F: Change All Pixels by 120 to 150</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -726,6 +741,39 @@
           <c:val>
             <c:numRef>
               <c:f>Conf!$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.84238173631578939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A4C-4B7F-8E77-EC762C0DEAC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Conf!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attack G: Dual Attack - 30 to 60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Conf!$H$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -813,17 +861,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100"/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Percent Decrease</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> in Classifier Confidence</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1100"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -881,8 +929,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.60584463539015809"/>
           <c:y val="8.475712430039932E-2"/>
-          <c:w val="0.34767103718449727"/>
-          <c:h val="0.86691991641946176"/>
+          <c:w val="0.34131630132540319"/>
+          <c:h val="0.80826656994998158"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -964,11 +1012,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Conf!$F$1</c:f>
+              <c:f>Conf!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Attack E: Change All Pixels by 30 to 60</c:v>
+                  <c:v>Attack D: Change All Pixels by 30 to 60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1101,7 +1149,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Conf!$F$2:$F$39</c:f>
+              <c:f>Conf!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1405,7 +1453,7 @@
           <c:x val="0.17159359440535049"/>
           <c:y val="7.3739856080819427E-2"/>
           <c:w val="0.39738148225768355"/>
-          <c:h val="0.78962434383202096"/>
+          <c:h val="0.82673001913721811"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1576,7 +1624,7 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -1584,7 +1632,45 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Attack D: Change All Pixels by 20 to 50</c:v>
+                  <c:v>Attack D: Change All Pixels by 30 to 60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>MisClass!$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.44736842105263158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1C5-4DBD-83D5-6BA7978DDC44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MisClass!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attack E: Change All Pixels by 60 to 90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1603,12 +1689,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MisClass!$E$40</c:f>
+              <c:f>MisClass!$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.39473684210526316</c:v>
+                  <c:v>0.65789473684210531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,45 +1706,7 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MisClass!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Attack E: Change All Pixels by 30 to 60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>MisClass!$F$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.44736842105263158</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1C5-4DBD-83D5-6BA7978DDC44}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
@@ -1666,7 +1714,45 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Attack F: Dual Attack - 30 to 60</c:v>
+                  <c:v>Attack F: Change All Pixels by 120 to 150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5089BC"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>MisClass!$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.81578947368421051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDDB-4E30-B8BE-11858630B17D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MisClass!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attack G: Dual Attack - 30 to 60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1681,7 +1767,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>MisClass!$G$40</c:f>
+              <c:f>MisClass!$H$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1769,10 +1855,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100"/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Percent of Test Images Misclassified</a:t>
                 </a:r>
               </a:p>
@@ -1782,8 +1868,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.1011376742464154E-2"/>
-              <c:y val="9.6076964805286616E-2"/>
+              <c:x val="2.101130043632006E-2"/>
+              <c:y val="0.18884124874001137"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1832,8 +1918,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.60584463539015809"/>
           <c:y val="8.475712430039932E-2"/>
-          <c:w val="0.32491531332020995"/>
-          <c:h val="0.83560096032772024"/>
+          <c:w val="0.34137191854233656"/>
+          <c:h val="0.88094988848937228"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1880,13 +1966,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>510539</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>172507</xdr:rowOff>
@@ -1916,13 +2002,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>205317</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>122770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>67317</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>42985</xdr:rowOff>
@@ -1966,9 +2052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2295,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2307,13 +2393,13 @@
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="1026" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2327,919 +2413,1040 @@
         <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>0.10169273</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>0.17088406</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>0.26894623792178285</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.62451060000000003</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="5">
         <v>0.81513893999999998</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F2" s="5">
+        <v>0.83906924999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.95112496999999996</v>
+      </c>
+      <c r="H2" s="5">
         <v>0.87949069999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>0.17240781999999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>0.23647207000000001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>0.28123971789766428</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.8125038</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="5">
         <v>0.84875630000000002</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F3" s="5">
+        <v>0.90421779999999996</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.73551730000000004</v>
+      </c>
+      <c r="H3" s="5">
         <v>0.86571807000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>0.117739476</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>0.19412247999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>0.2059424154356391</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.53003960000000006</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="5">
         <v>0.72244370000000002</v>
       </c>
-      <c r="G4" s="2">
+      <c r="F4" s="5">
+        <v>0.93823540000000005</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.93637649999999994</v>
+      </c>
+      <c r="H4" s="5">
         <v>0.86772939999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>0.17226812</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>0.21121055</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>0.31748575190403105</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.93251675000000001</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="5">
         <v>0.97235830000000001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="F5" s="5">
+        <v>0.97386055999999999</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.99266659999999995</v>
+      </c>
+      <c r="H5" s="5">
         <v>0.97152704000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>1.9129179999999999E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>3.1110847000000001E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>3.6104062372908405E-2</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.48943046000000001</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="5">
         <v>0.70350380000000001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="F6" s="5">
+        <v>0.85538303999999998</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.47583553000000001</v>
+      </c>
+      <c r="H6" s="5">
         <v>0.71909009999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>0.51543176000000002</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>0.54804843999999997</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>0.56540304700386934</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.69492023999999997</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="5">
         <v>0.92508500000000005</v>
       </c>
-      <c r="G7" s="2">
+      <c r="F7" s="5">
+        <v>0.98947876999999995</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.96613884000000005</v>
+      </c>
+      <c r="H7" s="5">
         <v>0.93985090000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>0.14521779000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>0.31799588000000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>0.33480737752441458</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.80805899999999997</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="5">
         <v>0.90649749999999996</v>
       </c>
-      <c r="G8" s="2">
+      <c r="F8" s="5">
+        <v>0.90300864000000003</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.98388160000000002</v>
+      </c>
+      <c r="H8" s="5">
         <v>0.90058726</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>0.21404662999999999</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>0.28235455999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>0.49483729983061087</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.47965469999999999</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="5">
         <v>0.21155149000000001</v>
       </c>
-      <c r="G9" s="2">
+      <c r="F9" s="5">
+        <v>0.15343155</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.80031980000000003</v>
+      </c>
+      <c r="H9" s="5">
         <v>0.53454279999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>1.2837687E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>3.3044074E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>3.4435789658336484E-2</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.53836536000000002</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="5">
         <v>0.40688216999999999</v>
       </c>
-      <c r="G10" s="2">
+      <c r="F10" s="5">
+        <v>0.52635615999999996</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.96792529999999999</v>
+      </c>
+      <c r="H10" s="5">
         <v>0.47081685000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>5.480463E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>0.17047435</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>0.22339819609341746</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.86881770000000003</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="5">
         <v>0.82393134000000001</v>
       </c>
-      <c r="G11" s="2">
+      <c r="F11" s="5">
+        <v>0.80566689999999996</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.71371850000000003</v>
+      </c>
+      <c r="H11" s="5">
         <v>0.82303280000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
         <v>0.19846977620285214</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.62491494000000003</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="5">
         <v>0.59314286999999999</v>
       </c>
-      <c r="G12" s="2">
+      <c r="F12" s="5">
+        <v>0.84889749999999997</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.98987435999999995</v>
+      </c>
+      <c r="H12" s="5">
         <v>0.69647926000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>1.7138694999999999E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>0.100842156</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>7.6535145942914468E-2</v>
       </c>
-      <c r="E13" s="2">
-        <v>0.52932376000000003</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E13" s="5">
         <v>0.4587813</v>
       </c>
-      <c r="G13" s="2">
+      <c r="F13" s="5">
+        <v>0.60141396999999996</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.95006800000000002</v>
+      </c>
+      <c r="H13" s="5">
         <v>0.51650286000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>0.35953107000000001</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>0.51221969999999994</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>0.56155163445666001</v>
       </c>
-      <c r="E14" s="2">
-        <v>0.84952253</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" s="5">
         <v>0.92015100000000005</v>
       </c>
-      <c r="G14" s="2">
+      <c r="F14" s="5">
+        <v>0.93740493000000003</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.84604590000000002</v>
+      </c>
+      <c r="H14" s="5">
         <v>0.94019425000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>0.4083135</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>0.53124879999999997</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>0.63893112274464814</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.40567964000000001</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="5">
         <v>0.57379690000000005</v>
       </c>
-      <c r="G15" s="2">
+      <c r="F15" s="5">
+        <v>0.7682466</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.85756619999999995</v>
+      </c>
+      <c r="H15" s="5">
         <v>0.55102030000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>0.23819369000000001</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>0.42835867</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>0.39661344761261497</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.87761509999999998</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="5">
         <v>0.65872406999999999</v>
       </c>
-      <c r="G16" s="2">
+      <c r="F16" s="5">
+        <v>0.56212156999999996</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.49628254999999999</v>
+      </c>
+      <c r="H16" s="5">
         <v>0.81528540000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>0.13743449999999999</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>0.31807760000000002</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>0.37917776266481062</v>
       </c>
-      <c r="E17" s="2">
-        <v>0.9439284</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="5">
         <v>0.97854304000000003</v>
       </c>
-      <c r="G17" s="2">
+      <c r="F17" s="5">
+        <v>0.96759415000000004</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.92577609999999999</v>
+      </c>
+      <c r="H17" s="5">
         <v>0.97427595</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>0.12484930499999999</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>0.28539035000000001</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>0.29597422390544265</v>
       </c>
-      <c r="E18" s="2">
-        <v>0.43829180000000001</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="5">
         <v>0.63932955000000002</v>
       </c>
-      <c r="G18" s="2">
+      <c r="F18" s="5">
+        <v>0.78697280000000003</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.87090290000000004</v>
+      </c>
+      <c r="H18" s="5">
         <v>0.75970090000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>0.11911905</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>0.39358720000000003</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>0.38512701476502376</v>
       </c>
-      <c r="E19" s="2">
-        <v>0.31780755999999999</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="5">
         <v>0.47636640000000002</v>
       </c>
-      <c r="G19" s="2">
+      <c r="F19" s="5">
+        <v>0.54968804000000004</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.99185849999999998</v>
+      </c>
+      <c r="H19" s="5">
         <v>0.56104516999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>0.11787615999999999</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>0.25517877999999999</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>0.16085836452105778</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.92729980000000001</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20" s="5">
         <v>0.98104950000000002</v>
       </c>
-      <c r="G20" s="2">
+      <c r="F20" s="5">
+        <v>0.99130832999999996</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.98150470000000001</v>
+      </c>
+      <c r="H20" s="5">
         <v>0.98579709999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>9.1718190000000005E-2</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>0.24843735</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>0.25767640977293388</v>
       </c>
-      <c r="E21" s="2">
-        <v>0.96981150000000005</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="5">
         <v>0.97463374999999997</v>
       </c>
-      <c r="G21" s="2">
+      <c r="F21" s="5">
+        <v>0.96815395000000004</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.97367669999999995</v>
+      </c>
+      <c r="H21" s="5">
         <v>0.98734250000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>9.4017519999999993E-2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>0.17796471999999999</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>0.26678582737120715</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="E22" s="5">
         <v>9.3788369999999992E-3</v>
       </c>
-      <c r="G22" s="2">
+      <c r="F22" s="5">
+        <v>0.22832324000000001</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.46501794000000002</v>
+      </c>
+      <c r="H22" s="5">
         <v>0.17682477999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>0.23541666999999999</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>0.39527884000000002</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>0.33678880876950734</v>
       </c>
-      <c r="E23" s="2">
-        <v>0.87284154000000003</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E23" s="5">
         <v>0.92746556000000002</v>
       </c>
-      <c r="G23" s="2">
+      <c r="F23" s="5">
+        <v>0.96412796000000001</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.99780535999999997</v>
+      </c>
+      <c r="H23" s="5">
         <v>0.90844923</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>7.7762590000000006E-2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>0.122119226</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>0.14121132209574136</v>
       </c>
-      <c r="E24" s="2">
-        <v>0.59092164000000003</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="E24" s="5">
         <v>0.63665839999999996</v>
       </c>
-      <c r="G24" s="2">
+      <c r="F24" s="5">
+        <v>0.90822417</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.90405643000000002</v>
+      </c>
+      <c r="H24" s="5">
         <v>0.74515604999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <v>3.1672217000000003E-2</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>0.10648418</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>0.16945335843416018</v>
       </c>
-      <c r="E25" s="2">
-        <v>0.70973589999999998</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="E25" s="5">
         <v>0.74442816000000001</v>
       </c>
-      <c r="G25" s="2">
+      <c r="F25" s="5">
+        <v>0.81868255000000001</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.71014476000000004</v>
+      </c>
+      <c r="H25" s="5">
         <v>0.78825540000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <v>0.44016860000000002</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="5">
         <v>0.64544815</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>0.66460818056925608</v>
       </c>
-      <c r="E26" s="2">
-        <v>0.86761630000000001</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="E26" s="5">
         <v>0.92758289999999999</v>
       </c>
-      <c r="G26" s="2">
+      <c r="F26" s="5">
+        <v>0.96747749999999999</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.98280363999999998</v>
+      </c>
+      <c r="H26" s="5">
         <v>0.96089952999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="5">
         <v>5.1152669999999997E-2</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <v>4.6075829999999998E-2</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>4.7632956779016182E-2</v>
       </c>
-      <c r="E27" s="2">
-        <v>0.35638750000000002</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="E27" s="5">
         <v>0.48793998</v>
       </c>
-      <c r="G27" s="2">
+      <c r="F27" s="5">
+        <v>0.73936254000000001</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.89366400000000001</v>
+      </c>
+      <c r="H27" s="5">
         <v>0.54649349999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="5">
         <v>0.13476028000000001</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="5">
         <v>0.26319419999999999</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>0.27254929702995251</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.3790847</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.26950713999999998</v>
+      </c>
+      <c r="H28" s="5">
         <v>0.21018456999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="5">
         <v>4.4231366000000001E-2</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="5">
         <v>3.7968528000000001E-2</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>0.11638638447617658</v>
       </c>
-      <c r="E29" s="2">
-        <v>0.85073273999999999</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="5">
         <v>0.92243149999999996</v>
       </c>
-      <c r="G29" s="2">
+      <c r="F29" s="5">
+        <v>0.96160049999999997</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.96524529999999997</v>
+      </c>
+      <c r="H29" s="5">
         <v>0.94818480000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="5">
         <v>2.4664289999999998E-2</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="5">
         <v>6.7431019999999994E-2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>4.1410860935095758E-2</v>
       </c>
-      <c r="E30" s="2">
-        <v>0.25109175</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E30" s="5">
         <v>0.65272410000000003</v>
       </c>
-      <c r="G30" s="2">
+      <c r="F30" s="5">
+        <v>0.87346520000000005</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.95716610000000002</v>
+      </c>
+      <c r="H30" s="5">
         <v>0.55304160000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="5">
         <v>0.20830593999999999</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="5">
         <v>0.23364018</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>0.31218818174301949</v>
       </c>
-      <c r="E31" s="2">
-        <v>0.75278794999999998</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" s="5">
         <v>0.61481666999999995</v>
       </c>
-      <c r="G31" s="2">
+      <c r="F31" s="5">
+        <v>0.37216493</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.86412949999999999</v>
+      </c>
+      <c r="H31" s="5">
         <v>0.67189829999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <v>0.31320867000000002</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="5">
         <v>0.44970152000000002</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>0.45933937781024031</v>
       </c>
-      <c r="E32" s="2">
-        <v>0.107596</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="E32" s="5">
         <v>0.53744817</v>
       </c>
-      <c r="G32" s="2">
+      <c r="F32" s="5">
+        <v>0.43891922</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.80239000000000005</v>
+      </c>
+      <c r="H32" s="5">
         <v>0.35138372000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="5">
         <v>0.22441538999999999</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="5">
         <v>0.3310343</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <v>0.32469632928253128</v>
       </c>
-      <c r="E33" s="2">
-        <v>0.35575162999999999</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="E33" s="5">
         <v>0.7762445</v>
       </c>
-      <c r="G33" s="2">
+      <c r="F33" s="5">
+        <v>0.85325960000000001</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.97541875</v>
+      </c>
+      <c r="H33" s="5">
         <v>0.74465822999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="5">
         <v>3.9896265E-2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="5">
         <v>5.3197979999999999E-2</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <v>8.4746236729859856E-2</v>
       </c>
-      <c r="E34" s="2">
-        <v>0.21945864000000001</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="E34" s="5">
         <v>0.33514907999999999</v>
       </c>
-      <c r="G34" s="2">
+      <c r="F34" s="5">
+        <v>0.68269939999999996</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.70127019999999995</v>
+      </c>
+      <c r="H34" s="5">
         <v>0.36031879999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="5">
         <v>0.20573422</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="5">
         <v>0.23090522999999999</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="5">
         <v>0.28810546616752936</v>
       </c>
-      <c r="E35" s="2">
-        <v>0.64139736000000003</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="E35" s="5">
         <v>0.44862701999999999</v>
       </c>
-      <c r="G35" s="2">
+      <c r="F35" s="5">
+        <v>2.5788098999999998E-2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.93224280000000004</v>
+      </c>
+      <c r="H35" s="5">
         <v>0.37222040000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="5">
         <v>0.49310179999999998</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="5">
         <v>0.70090249999999998</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="5">
         <v>0.65371083320783463</v>
       </c>
-      <c r="E36" s="2">
-        <v>0.55757710000000005</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="E36" s="5">
         <v>0.39998126000000001</v>
       </c>
-      <c r="G36" s="2">
+      <c r="F36" s="5">
+        <v>0.65504390000000001</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.30431395999999999</v>
+      </c>
+      <c r="H36" s="5">
         <v>0.74639409999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="5">
         <v>8.0419980000000002E-2</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="5">
         <v>0.16513021</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="5">
         <v>0.16758069066387654</v>
       </c>
-      <c r="E37" s="2">
-        <v>0.88798635999999997</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="E37" s="5">
         <v>0.95519876000000004</v>
       </c>
-      <c r="G37" s="2">
+      <c r="F37" s="5">
+        <v>0.98215889999999995</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.98977875999999998</v>
+      </c>
+      <c r="H37" s="5">
         <v>0.95080452999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="5">
         <v>6.8497429999999998E-2</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="5">
         <v>0.12307560400000001</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="5">
         <v>0.14724123431003802</v>
       </c>
-      <c r="E38" s="2">
-        <v>0.45847969999999999</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="E38" s="5">
         <v>0.42744460000000001</v>
       </c>
-      <c r="G38" s="2">
+      <c r="F38" s="5">
+        <v>0.85667280000000001</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.93868744000000004</v>
+      </c>
+      <c r="H38" s="5">
         <v>0.84181600000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="5">
         <v>0.26719213000000003</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="5">
         <v>0.35263749999999999</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="5">
         <v>0.30496462200414243</v>
       </c>
-      <c r="E39" s="2">
-        <v>0.33619735000000001</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="E39" s="5">
         <v>0.63191812999999997</v>
       </c>
-      <c r="G39" s="2">
+      <c r="F39" s="5">
+        <v>0.76337080000000002</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.94980304999999998</v>
+      </c>
+      <c r="H39" s="5">
         <v>0.74176549999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="5">
         <f>AVERAGE(B2:B39)</f>
         <v>0.16248336871052629</v>
       </c>
-      <c r="C40" s="2">
-        <f t="shared" ref="C40:G40" si="0">AVERAGE(C2:C39)</f>
+      <c r="C40" s="5">
+        <f t="shared" ref="C40:H40" si="0">AVERAGE(C2:C39)</f>
         <v>0.25713809565789469</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="5">
         <f t="shared" si="0"/>
         <v>0.28718196754239</v>
       </c>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>0.59156770263157898</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="E40" s="5">
         <f t="shared" si="0"/>
         <v>0.65858169860526317</v>
       </c>
-      <c r="G40" s="2">
+      <c r="F40" s="5">
+        <f>AVERAGE(F2:F39)</f>
+        <v>0.7458141031315787</v>
+      </c>
+      <c r="G40" s="5">
+        <f>AVERAGE(G2:G39)</f>
+        <v>0.84238173631578939</v>
+      </c>
+      <c r="H40" s="5">
         <f t="shared" si="0"/>
         <v>0.7204941749999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -3248,7 +3455,7 @@
         <v>0.13659347938493088</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:F42" si="1">STDEV(C2:C39)</f>
+        <f t="shared" ref="C42:E42" si="1">STDEV(C2:C39)</f>
         <v>0.17695163497054117</v>
       </c>
       <c r="D42">
@@ -3257,30 +3464,34 @@
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>0.27176750788329074</v>
+        <v>0.26213595074796037</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>0.26213595074796037</v>
+        <f>STDEV(F2:F39)</f>
+        <v>0.25261749414578516</v>
       </c>
       <c r="G42">
         <f>STDEV(G2:G39)</f>
+        <v>0.19624851208386157</v>
+      </c>
+      <c r="H42">
+        <f>STDEV(H2:H39)</f>
         <v>0.22683134366136512</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBB7245-ACF7-4A9C-8FCF-AE2C55D8DB2E}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3288,12 +3499,12 @@
     <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3307,16 +3518,19 @@
         <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3330,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -3338,8 +3552,11 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -3361,8 +3578,11 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3379,13 +3599,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3407,8 +3630,11 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3425,13 +3651,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3445,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -3453,8 +3682,11 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -3476,8 +3708,11 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3499,8 +3734,11 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -3520,10 +3758,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -3545,8 +3786,11 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3563,13 +3807,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -3589,10 +3836,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -3614,8 +3864,11 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -3632,13 +3885,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -3652,16 +3908,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -3683,8 +3942,11 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -3701,13 +3963,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -3727,10 +3992,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -3752,8 +4020,11 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3775,8 +4046,11 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3798,8 +4072,11 @@
       <c r="G22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3821,8 +4098,11 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -3839,13 +4119,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -3867,8 +4150,11 @@
       <c r="G25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -3890,8 +4176,11 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -3911,10 +4200,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -3936,8 +4228,11 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -3959,8 +4254,11 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -3974,16 +4272,19 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -4003,10 +4304,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -4026,10 +4330,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -4043,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -4051,8 +4358,11 @@
       <c r="G33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -4074,8 +4384,11 @@
       <c r="G34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -4089,16 +4402,19 @@
         <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -4118,10 +4434,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -4143,8 +4462,11 @@
       <c r="G37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -4161,13 +4483,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -4184,18 +4509,21 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" ref="B40:G40" si="0">SUM(B2:B39)/COUNT(B2:B39)</f>
+        <f t="shared" ref="B40:H40" si="0">SUM(B2:B39)/COUNT(B2:B39)</f>
         <v>0</v>
       </c>
       <c r="C40" s="2">
@@ -4207,14 +4535,18 @@
         <v>0</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>0.39473684210526316</v>
+        <f>SUM(E2:E39)/COUNT(E2:E39)</f>
+        <v>0.44736842105263158</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="0"/>
-        <v>0.44736842105263158</v>
+        <f>SUM(F2:F39)/COUNT(F2:F39)</f>
+        <v>0.65789473684210531</v>
       </c>
       <c r="G40" s="2">
+        <f>SUM(G2:G39)/COUNT(G2:G39)</f>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
         <v>0.60526315789473684</v>
       </c>
